--- a/archivos/formato2.xlsx
+++ b/archivos/formato2.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
   <si>
     <t>Descripcion</t>
   </si>
@@ -138,9 +139,6 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>telefono</t>
   </si>
   <si>
@@ -153,16 +151,118 @@
     <t>foto</t>
   </si>
   <si>
-    <t>DAVID FLORES</t>
-  </si>
-  <si>
-    <t>EMPRES</t>
-  </si>
-  <si>
-    <t>UNA DIRECCION</t>
-  </si>
-  <si>
     <t>DETALLE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>EMPRES1</t>
+  </si>
+  <si>
+    <t>EMPRES2</t>
+  </si>
+  <si>
+    <t>EMPRES3</t>
+  </si>
+  <si>
+    <t>EMPRES4</t>
+  </si>
+  <si>
+    <t>EMPRES5</t>
+  </si>
+  <si>
+    <t>EMPRES6</t>
+  </si>
+  <si>
+    <t>EMPRES7</t>
+  </si>
+  <si>
+    <t>EMPRES8</t>
+  </si>
+  <si>
+    <t>EMPRES9</t>
+  </si>
+  <si>
+    <t>EMPRES10</t>
+  </si>
+  <si>
+    <t>EMPRES11</t>
+  </si>
+  <si>
+    <t>EMPRES12</t>
+  </si>
+  <si>
+    <t>DAVID FLORES1</t>
+  </si>
+  <si>
+    <t>DAVID FLORES2</t>
+  </si>
+  <si>
+    <t>DAVID FLORES3</t>
+  </si>
+  <si>
+    <t>DAVID FLORES4</t>
+  </si>
+  <si>
+    <t>DAVID FLORES5</t>
+  </si>
+  <si>
+    <t>DAVID FLORES6</t>
+  </si>
+  <si>
+    <t>DAVID FLORES7</t>
+  </si>
+  <si>
+    <t>DAVID FLORES8</t>
+  </si>
+  <si>
+    <t>DAVID FLORES9</t>
+  </si>
+  <si>
+    <t>DAVID FLORES10</t>
+  </si>
+  <si>
+    <t>DAVID FLORES11</t>
+  </si>
+  <si>
+    <t>DAVID FLORES12</t>
+  </si>
+  <si>
+    <t>UNA DIRECCION1</t>
+  </si>
+  <si>
+    <t>UNA DIRECCION2</t>
+  </si>
+  <si>
+    <t>UNA DIRECCION3</t>
+  </si>
+  <si>
+    <t>UNA DIRECCION4</t>
+  </si>
+  <si>
+    <t>UNA DIRECCION5</t>
+  </si>
+  <si>
+    <t>UNA DIRECCION6</t>
+  </si>
+  <si>
+    <t>UNA DIRECCION7</t>
+  </si>
+  <si>
+    <t>UNA DIRECCION8</t>
+  </si>
+  <si>
+    <t>UNA DIRECCION9</t>
+  </si>
+  <si>
+    <t>UNA DIRECCION10</t>
+  </si>
+  <si>
+    <t>UNA DIRECCION11</t>
+  </si>
+  <si>
+    <t>UNA DIRECCION12</t>
   </si>
 </sst>
 </file>
@@ -515,7 +615,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,41 +847,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A15:G16"/>
+  <dimension ref="A15:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>40</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -789,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>7897878</v>
@@ -797,10 +897,640 @@
       <c r="D16" t="s">
         <v>43</v>
       </c>
+      <c r="E16" t="str">
+        <f ca="1">CONCATENATE(A16," ",B16," ",C16," ",D16,RANDBETWEEN(100,500))</f>
+        <v>1 DAVID FLORES1 7897878 EMPRES1136</v>
+      </c>
       <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ref="G16:G19" si="0">CONCATENATE("D:\foto",A16,".jpg")</f>
+        <v>D:\foto1.jpg</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>7897879</v>
+      </c>
+      <c r="D17" t="s">
         <v>44</v>
       </c>
-    </row>
+      <c r="E17" t="str">
+        <f t="shared" ref="E17:E27" ca="1" si="1">CONCATENATE(A17," ",B17," ",C17," ",D17,RANDBETWEEN(100,500))</f>
+        <v>2 DAVID FLORES2 7897879 EMPRES2321</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>D:\foto2.jpg</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>7897880</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3 DAVID FLORES3 7897880 EMPRES3217</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>D:\foto3.jpg</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>7897881</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4 DAVID FLORES4 7897881 EMPRES4255</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>D:\foto4.jpg</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>7897882</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>5 DAVID FLORES5 7897882 EMPRES5122</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" t="str">
+        <f>CONCATENATE("D:\foto",A20,".jpg")</f>
+        <v>D:\foto5.jpg</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>7897883</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>6 DAVID FLORES6 7897883 EMPRES6348</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" ref="G21:G27" si="2">CONCATENATE("D:\foto",A21,".jpg")</f>
+        <v>D:\foto6.jpg</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>7897884</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>7 DAVID FLORES7 7897884 EMPRES7500</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>D:\foto7.jpg</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>7897885</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>8 DAVID FLORES8 7897885 EMPRES8210</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>D:\foto8.jpg</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <v>7897886</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9 DAVID FLORES9 7897886 EMPRES9448</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>D:\foto9.jpg</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <v>7897887</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>10 DAVID FLORES10 7897887 EMPRES10156</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>D:\foto10.jpg</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
+        <v>7897888</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>11 DAVID FLORES11 7897888 EMPRES11166</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>D:\foto11.jpg</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
+        <v>7897889</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>12 DAVID FLORES12 7897889 EMPRES12257</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>D:\foto12.jpg</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>7897878</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="str">
+        <f ca="1">CONCATENATE(A2," ",B2," ",C2," ",D2,RANDBETWEEN(100,500))</f>
+        <v>1 DAVID FLORES1 7897878 EMPRES1459</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G5" si="0">CONCATENATE("D:\foto",A2,".jpg")</f>
+        <v>D:\foto1.jpg</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>7897879</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E13" ca="1" si="1">CONCATENATE(A3," ",B3," ",C3," ",D3,RANDBETWEEN(100,500))</f>
+        <v>2 DAVID FLORES2 7897879 EMPRES2388</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>D:\foto2.jpg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>7897880</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3 DAVID FLORES3 7897880 EMPRES3378</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>D:\foto3.jpg</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>7897881</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4 DAVID FLORES4 7897881 EMPRES4393</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>D:\foto4.jpg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <v>7897882</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>5 DAVID FLORES5 7897882 EMPRES5348</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="str">
+        <f>CONCATENATE("D:\foto",A6,".jpg")</f>
+        <v>D:\foto5.jpg</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>7897883</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>6 DAVID FLORES6 7897883 EMPRES6375</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ref="G7:G13" si="2">CONCATENATE("D:\foto",A7,".jpg")</f>
+        <v>D:\foto6.jpg</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>7897884</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>7 DAVID FLORES7 7897884 EMPRES7384</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>D:\foto7.jpg</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>7897885</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>8 DAVID FLORES8 7897885 EMPRES8446</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>D:\foto8.jpg</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>7897886</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9 DAVID FLORES9 7897886 EMPRES9410</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>D:\foto9.jpg</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>7897887</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>10 DAVID FLORES10 7897887 EMPRES10150</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>D:\foto10.jpg</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <v>7897888</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>11 DAVID FLORES11 7897888 EMPRES11497</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>D:\foto11.jpg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13">
+        <v>7897889</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>12 DAVID FLORES12 7897889 EMPRES12439</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>D:\foto12.jpg</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
